--- a/Testcase/TestCase_OrangehrmDemo.xlsx
+++ b/Testcase/TestCase_OrangehrmDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10f9c24e7796a6a8/Desktop/practic/orangehrm demo/Testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="11_F25DC773A252ABDACC10483D29D957CA5ADE58EE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79080374-2AA5-42F0-AD77-324EEAEDEC52}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="11_F25DC773A252ABDACC10483D29D957CA5ADE58EE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42DE899C-79F6-4F4C-ACA1-D48C712071F7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="169">
   <si>
     <t>Test Case Name / Title</t>
   </si>
@@ -561,12 +561,6 @@
     <t>Showing enough 6 shortcuts, all links are returned to the corresponding page</t>
   </si>
   <si>
-    <t>Show the Action list with the correct number, button working</t>
-  </si>
-  <si>
-    <t>Widget is visible, punch information in the correct format, button working</t>
-  </si>
-  <si>
     <t>Hold On</t>
   </si>
   <si>
@@ -577,6 +571,24 @@
   </si>
   <si>
     <t>Button toggle menu visible</t>
+  </si>
+  <si>
+    <t>Show the Action list with the correct number, button are returned to the corresponding page</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Locate Time at Work widget
+3. Verify that the Punch In/Out status text is displayed correctly
+4. Verify that today’s total working hours are displayed
+5. Verify that the weekly chart (Mon–Sun) is displayed
+6. Click the display button</t>
+  </si>
+  <si>
+    <t>1. The widget is visible
+2. Punch In/Out information is displayed in the correct format (Punched In/Out: Today at HH:MM (GMT ±X))
+3. Today’s total working hours are displayed in the format Xh Ym Today
+4. The weekly chart shows all 7 columns (Mon–Sun)
+5. Clicking the display button redirects to the correct page</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1400,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>63</v>
@@ -1448,7 +1460,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>63</v>
@@ -1481,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF7AC3B-37F1-4237-9A95-82FE56D679C4}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,10 +1686,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>89</v>
@@ -1689,7 +1701,7 @@
         <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
@@ -1777,7 +1789,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
@@ -1791,20 +1803,20 @@
         <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>131</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>90</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1966,32 +1978,32 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>159</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
